--- a/biology/Botanique/Liste_des_jardins_portant_le_label_Jardin_remarquable/Liste_des_jardins_portant_le_label_Jardin_remarquable.xlsx
+++ b/biology/Botanique/Liste_des_jardins_portant_le_label_Jardin_remarquable/Liste_des_jardins_portant_le_label_Jardin_remarquable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page recense les jardins de France bénéficiant du label Jardin remarquable.
 Ce label étant attribué pour cinq ans, leur liste évolue régulièrement, avec l'entrée de nouveaux jardins et la suppression d'anciens.
@@ -512,10 +524,12 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le label Jardin remarquable est attribué par le ministère de la Culture et de la Communication à des parcs ou jardins d'intérêt particulier, ouverts au public. Le label étant attribué pour cinq ans, leur liste évolue régulièrement, avec l'entrée de nouveaux jardins et la suppression d'anciens.
-Au 15 décembre 2022, la France compte 461 jardins remarquables[1]. Certains sont inscrits au titre des monuments historiques, d’autres y sont classés. Un « label espace végétal écologique » ou un « label écojardin » est parfois attribué. Les jardins sont répartis suivant les régions de la façon suivante :
+Au 15 décembre 2022, la France compte 461 jardins remarquables. Certains sont inscrits au titre des monuments historiques, d’autres y sont classés. Un « label espace végétal écologique » ou un « label écojardin » est parfois attribué. Les jardins sont répartis suivant les régions de la façon suivante :
 </t>
         </is>
       </c>
@@ -546,10 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auvergne-Rhône-Alpes
-Bourgogne-Franche-Comté
-Côte-d'Or
-Arceau : parc du château d'Arcelot,
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Côte-d'Or</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arceau : parc du château d'Arcelot,
 Barbirey-sur-Ouche : parc et jardin du château de Barbirey,
 Fontaine-Française : parc du château de Fontaine-Française,
 Lantilly : potager fleuri du château de Lantilly,
@@ -561,11 +582,89 @@
 			Le parc du château de Fontaine-Française.
 			Le parc de l'abbaye de Fontenay.
 			Le jardin du château de Talmay.
-Doubs
-Cubry : parc et jardin du château de Bournel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Doubs</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cubry : parc et jardin du château de Bournel.
 			Le parc du château de Bournel.
-Haute-Saône
-Autoreille : jardin aquatique Acorus,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Haute-Saône</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autoreille : jardin aquatique Acorus,
 Battrans : parc de l'Étang,
 Chancey : jardin du Clos-Ballot,
 Frahier-et-Chatebier : jardin des rouges vis,
@@ -574,35 +673,229 @@
 Vesoul : jardin anglais.
 			Le parc et le château d'Ouge.
 			Le Jardin anglais de Vesoul.
-Jura
-Arlay : parc du château d'Arlay,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Jura</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arlay : parc du château d'Arlay,
 Cressia : atelier jardin de Cressia,
 Dole : jardin de Landon,
 Rainans : jardin Annabelle.
 			Le parc du château d'Arlay.
 			Le jardin de Landon.
-Nièvre
-Alligny-en-Morvan : Château de La Chaux,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nièvre</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alligny-en-Morvan : Château de La Chaux,
 La Chapelle-Saint-André : jardin du château de Corbelin,
 Châtillon-en-Bazois : parc et jardin du château de Châtillon-en-Bazois,
 Coulanges-lès-Nevers : jardin de Forgeneuve.
 			Jardins du château de Châtillon-en-Bazois.
-Saône-et-Loire
-Céron : jardin des Soussilanges,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Saône-et-Loire</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Céron : jardin des Soussilanges,
 Curbigny : jardins du château de Drée,
 Palinges : jardin potager du château de Digoine.
 			Le jardin de buis du château de Drée.
 			Jardin potager du château de Digoine à Palinges.
-Yonne
-Guillon : parc et jardin de Courterolles,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yonne</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guillon : parc et jardin de Courterolles,
 Leugny : jardin de la Borde,
 Sens : parc du moulin à tan et serres de collections tropicales,
 Thorigny-sur-Oreuse : parc du château de Thorigny.
 			Passerelle dans le parc du moulin à tan.
 			La grande perspective du château de Thorigny (dessin effectué vers 1710).
- Bretagne
-Côtes-d'Armor
-Gouarec : jardin de la rue au Lin,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bretagne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Côtes-d'Armor</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gouarec : jardin de la rue au Lin,
 Lanrivain : jardin du Grand Launay,
 Lanvellec : parc et jardin du château de Rosanbo,
 Mûr-de-Bretagne : jardin du Botrain,
@@ -614,8 +907,47 @@
 Trédarzec : jardins de Kerdalo.
 			Jardins du château de la Roche-Jagu.
 			Les jardins de Kerdalo.
-Finistère
-Brest : jardin et conservatoire botanique national de Brest,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bretagne</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Finistère</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brest : jardin et conservatoire botanique national de Brest,
 Combrit : parc botanique de Cornouaille,
 Daoulas : jardin des simples de l'abbaye Notre-Dame,
 Île-de-Batz : jardin Georges Delaselle,
@@ -628,8 +960,47 @@
 			Jardin du prieuré de Locmaria.
 			Jardin exotique et botanique de Roscoff.
 			Parc du château de Trévarez.
-Ille-et-Vilaine
-Bazouges-la-Pérouse : jardin du château de la Ballue,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bretagne</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ille-et-Vilaine</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bazouges-la-Pérouse : jardin du château de la Ballue,
 Bréal-sous-Montfort : jardins de Brocéliande,
 Corps-Nuds : jardins Rocambole,
 Le Châtellier : jardin du Soleil Levant dans le parc botanique de Haute-Bretagne,
@@ -641,9 +1012,47 @@
 			Le vallon des Poètes, Parc botanique de Haute-Bretagne.
 			Jardin médiéval du château de Bois-Orcan.
 			Jardin à la française du château de Montmarin.
-Centre-Val de Loire
-Cher
-Ainay-le-Vieil : jardins du château d'Ainay-le-Vieil,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cher</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ainay-le-Vieil : jardins du château d'Ainay-le-Vieil,
 Apremont-sur-Allier : parc floral d'Apremont,
 Bourges : jardin des Prés-Fichaux,
 Jalognes-Groises : parc du château de Pesselières,
@@ -653,20 +1062,137 @@
 			Les jardins du château d'Ainay-le-Vieil.
 			Parc floral d'Apremont.
 			Jardin des Prés-Fichaux.
-Eure-et-Loir
-Illiers-Combray : Pré Catelan (« parc de Tansonville » dans l’œuvre de Marcel Proust).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Eure-et-Loir</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Illiers-Combray : Pré Catelan (« parc de Tansonville » dans l’œuvre de Marcel Proust).
 	Jardin du Pré-Catelan à Illiers-Combray
 .
-Indre
-Azay-le-Ferron : parc du château d'Azay-le-Ferron,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Indre</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azay-le-Ferron : parc du château d'Azay-le-Ferron,
 Bouges-le-Château : jardin du château de Bouges,
 Poulaines : domaine de Poulaines.
 			Parc du château d'Azay-le-Ferron.
 			Jardin du château de Bouges.
-Indre-et-Loire
-Amboise : jardins du château royal d'Amboise,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Indre-et-Loire</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amboise : jardins du château royal d'Amboise,
 Chançay : parc et jardins du château de Valmer,
-Chédigny : village-jardin de Chédigny, premier village de France à obtenir le label[2],
+Chédigny : village-jardin de Chédigny, premier village de France à obtenir le label,
 Chenonceaux : parc et jardins du château de Chenonceau,
 Lémeré : jardins du château du Rivau,
 Rochecorbon : jardin du manoir des Basses-Rivières
@@ -678,13 +1204,91 @@
 			Une rue à Chédigny.
 			Jardin de Diane de Poitiers dans le parc du château de Chenonceau.
 			Jardins du château de Villandry.
-Loir-et-Cher
-Blois : roseraie des terrasses de l'évêché,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Loir-et-Cher</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blois : roseraie des terrasses de l'évêché,
 Chaumont-sur-Loire : domaine régional du château de Chaumont-sur-Loire,
 Sasnières : jardin du château de Sasnières.
 			Parc du château de Chaumont-sur-Loire,
-Loiret
-Ingrannes : arboretum des Grandes Bruyères,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Loiret</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingrannes : arboretum des Grandes Bruyères,
 La Bussière : potager du jardin du château de La Bussière,
 Meung-sur-Loire : jardins de Roquelin (roseraie de plus de 400 variétés),
 Montbarrois : parc du manoir de la Javelière,
@@ -694,22 +1298,174 @@
 			Arboretum des Grandes Bruyères.
 			Potager du jardin du château de La Bussière.
 			Parc floral de la Source.
-Corse
-Corse-du-Sud
-Zonza : giardinu di l'Isuli.
-Haute-Corse
-Monticello : parc de Saleccia.
-Grand Est
-Aube
-Barberey-Saint-Sulpice : parc et jardin du château de Barberey-Saint-Sulpice,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Corse-du-Sud</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Zonza : giardinu di l'Isuli.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Haute-Corse</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Monticello : parc de Saleccia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Aube</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barberey-Saint-Sulpice : parc et jardin du château de Barberey-Saint-Sulpice,
 Marnay-sur-Seine : jardin botanique de Marnay-sur-Seine,
 La Motte-Tilly : parc et jardin du château de La Motte-Tilly,
 Pargues : jardin du prieuré de Pargues.
 			Jardin du château de Barberey-Saint-Sulpice.
 			Roseraie du jardin botanique de Marnay-sur-Seine.
 			Parc et plan d'eau du château de La Motte-Tilly.
-Bas-Rhin
-Bœrsch : jardin philosophe,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Bas-Rhin</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bœrsch : jardin philosophe,
 Brumath : jardin de l'Escalier,
 Kintzheim : parc des ruines du château de Kintzheim,
 Kolbsheim : jardin du château de Kolbsheim,
@@ -721,8 +1477,47 @@
 			Le jardin du château de Kolbsheim.
 			Jardin botanique du col de Saverne.
 			Jardin botanique de l'université de Strasbourg.
-Haut-Rhin
-Bennwihr, Houssen et Ostheim : parc du château de Schoppenwihr,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Haut-Rhin</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bennwihr, Houssen et Ostheim : parc du château de Schoppenwihr,
 Guebwiller : parc de la Marseillaise,
 Husseren-Wesserling : parc de Wesserling,
 Illzach : jardin du temps,
@@ -732,8 +1527,47 @@
 			Kiosque du parc de la Marseillaise.
 			Parc de Wesserling.
 			Jardin des rhododendrons dans le parc zoologique et botanique de Mulhouse.
-Haute-Marne
-Bourmont : parc des Roches,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Haute-Marne</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bourmont : parc des Roches,
 Cohons :
 jardin de Vergentière,
 jardin de Silières,
@@ -741,8 +1575,47 @@
 Thonnance-lès-Joinville : jardin de mon moulin.
 			Jardin de Silières.
 			Parc du château du Grand Jardin.
-Marne
-Châlons-en-Champagne : petit Jard,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Marne</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Châlons-en-Champagne : petit Jard,
 Épernay :
 jardin de l'hôtel de ville,
 jardin de l'horticulture,
@@ -756,8 +1629,47 @@
 			Jardin de l'horticulture d'Épernay.
 			Parc de Champagne.
 			Patte d'oie.
-Meurthe-et-Moselle
-Fléville-devant-Nancy : parc du château de Fléville,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fléville-devant-Nancy : parc du château de Fléville,
 Gerbéviller : parc du château de Gerbéviller,
 Gélaucourt : jardin d'eau de l'Aubepré,
 Nancy :
@@ -769,33 +1681,226 @@
 			Jardin Alexandre-Godron.
 			Magnolias dans le parc Sainte-Marie.
 			Jardin botanique Jean-Marie-Pelt.
-Meuse
-Haironville : parc de la Varenne,
-Nettancourt : parc de la Grange-aux-Champs.
-Moselle
-Laquenexy : jardins fruitiers de Laquenexy,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Meuse</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Haironville : parc de la Varenne,
+Nettancourt : parc de la Grange-aux-Champs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Moselle</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laquenexy : jardins fruitiers de Laquenexy,
 Manom : jardin des Prairiales,
 Pange : parc du château de Pange,
 Sarreguemines : jardin des Faïenciers.
 			Parc du château de Pange.
 			Jardin des Faïenciers.
-Vosges
-Autrey : jardins de l'abbaye Notre-Dame,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Vosges</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrey : jardins de l'abbaye Notre-Dame,
 Ban-de-Sapt : jardins de Callunes,
 Saint-Ouen-lès-Parey : jardin d'Ode,
 Xonrupt-Longemer : jardin d'altitude du Haut Chitelet.
 			Parc de l'abbaye Notre-Dame d'Autrey.
 			Les jardins de Callunes.
 			Jardin d'altitude du Haut Chitelet.
-Hauts-de-France
-Aisne
-Bosmont-sur-Serre : parc et jardin de Bosmont-sur-Serre,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Aisne</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bosmont-sur-Serre : parc et jardin de Bosmont-sur-Serre,
 Largny-sur-Automne : jardin du château de la Muette,
 Puisieux-et-Clanlieu : jardins du château de Puisieux-et-Clanlieu,
 Viels-Maisons : jardins du château de Viels-Maisons.
 			Parc du château de la Muette.
-Nord
-Cassel : ferme du mont des Récollets,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cassel : ferme du mont des Récollets,
 Halluin : parc arboretum du Manoir-aux-Loups,
 Houplin-Ancoisne : Mosaïc, le jardin des Cultures,
 Lille : jardin des Géants,
@@ -804,8 +1909,47 @@
 			Parc arboretum du Manoir-aux-Loups.
 			Terrasses de la Méditerranée, Mosaïc, le jardin des Cultures.
 			Parc Barbieux.
-Oise
-Chantilly :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Oise</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chantilly :
 jardin et parc du château de Chantilly,
 potager des Princes,
 Compiègne : jardin et parc du Palais de Compiègne,
@@ -824,17 +1968,95 @@
 			Roseraie de l'abbaye de Chaalis.
 			Senlis (Oise) Parc du domaine de Valgenceuse.
 			Jardin du donjon de Vez.
-Pas-de-Calais
-Bréxent-Énocq : jardins du manoir d'Hénocq,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bréxent-Énocq : jardins du manoir d'Hénocq,
 Chériennes : jardin des Lianes,
 La Capelle-lès-Boulogne : parc et jardins du château de Conteval,
 Lens : parc du Louvre-Lens,
 Marck : jardin botanique du Beau Pays,
 Séricourt : jardins de Séricourt,
-Le Touquet-Paris-Plage : les jardins de la Manche[3].
+Le Touquet-Paris-Plage : les jardins de la Manche.
 			Jardins de Séricourt.
-Somme
-Abbeville : Parc d'Emonville,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Somme</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abbeville : Parc d'Emonville,
 Amiens : jardin des Plantes,
 Argoules : jardins de l'abbaye de Valloires,
 Maizicourt : jardins du château de Maizicourt,
@@ -846,9 +2068,47 @@
 			Jardins du château de Maizicourt.
 			Jardin floral du château de Digeon.
 			Parc du château de Rambures.
-Île-de-France
-Essonne
-Chamarande : parc de Chamarande,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Essonne</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamarande : parc de Chamarande,
 Courances : parc du château de Courances,
 Courson-Monteloup : parc de Courson,
 Méréville : domaine départemental,
@@ -856,8 +2116,47 @@
 			Fontaine du parc de Chamarande.
 			Jardin japonais du château de Courances.
 			Parc du château de Beauregard.
-Hauts-de-Seine
-Châtenay-Malabry :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hauts-de-Seine</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Châtenay-Malabry :
 Vallée-aux-Loups, parc de la maison de Châteaubriand,
 Arboretum de la Vallée-aux-Loups,
 L'Île Verte,
@@ -868,8 +2167,47 @@
 			Parc du domaine de Malmaison.
 			Domaine national de Saint-Cloud.
 			Le grand canal du parc de Sceaux.
-Paris
-jardin du Palais-Royal,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jardin du Palais-Royal,
 jardin des Tuileries,
 jardins de l'École Du Breuil et arboretum de Paris,
 parc floral de Paris,
@@ -880,8 +2218,47 @@
 			Parc de Bagatelle.
 			Parc floral de Paris.
 			Jardin des Tuileries.
-Seine-et-Marne
-Champs-sur-Marne : domaine national de Champs-sur-Marne,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Seine-et-Marne</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Champs-sur-Marne : domaine national de Champs-sur-Marne,
 Crécy-la-Chapelle : jardin du Moulin Jaune,
 Égreville : jardin-musée départemental Bourdelle,
 Fontainebleau : parc du château de Fontainebleau,
@@ -891,14 +2268,131 @@
 			Jardin-musée départemental Bourdelle d'Égreville.
 			Grand parterre du château de Fontainebleau.
 			Parc du château de Vaux-le-Vicomte.
-Seine-Saint-Denis
-Montreuil : jardins des Murs à pêches
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Seine-Saint-Denis</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montreuil : jardins des Murs à pêches
 			Le clos des pêches au début du XXe siècle.
-Val-de-Marne
-L'Haÿ-les-Roses : roseraie du Val-de-Marne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Val-de-Marne</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Haÿ-les-Roses : roseraie du Val-de-Marne.
 			L'Haÿ-les-Roses, roseraie du Val-de-Marne.
-Val-d'Oise
-Ambleville : domaine d'Ambleville,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Val-d'Oise</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambleville : domaine d'Ambleville,
 Asnières-sur-Oise : parc de l'abbaye de Royaumont,
 Chaussy : domaine de Villarceaux,
 Grisy-les-Plâtres : jardin de campagne,
@@ -909,8 +2403,47 @@
 			Domaine de Villarceaux.
 			Potager fruitier du château de La Roche-Guyon.
 			Jardin du musée de l'Outil.
-Yvelines
-Choisel : parc du château de Breteuil,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Yvelines</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choisel : parc du château de Breteuil,
 Marly-le-Roi : domaine national de Marly-le-Roi,
 Rambouillet : domaine national de Rambouillet,
 Rocquencourt : arboretum de Versailles-Chèvreloup,
@@ -927,9 +2460,47 @@
 			Parc du château de Thoiry.
 			Domaine national de Versailles.
 			Potager du Roi.
-Normandie
-Calvados
-Caen : jardin des Plantes,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Calvados</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caen : jardin des Plantes,
 Cambremer : jardins du pays d'Auge,
 Castillon : jardins de Plantbessin,
 Livry : domaine d'Albizia,
@@ -944,8 +2515,47 @@
 			Topiaires dans le parc du château de Boutemont.
 			Parc du château de Brécy.
 			Parc du château de Vendeuvre.
-Eure
-Acquigny : parc et jardins du château d'Acquigny,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Eure</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acquigny : parc et jardins du château d'Acquigny,
 Giverny :
 jardin du musée des impressionnismes à Giverny,
 jardin de Claude Monet,
@@ -956,8 +2566,47 @@
 			L'allée centrale du Clos Normand au jardin de Claude Monet.
 			Parc du château de Fontaine-la-Soret.
 			Jardins du Champ-de-Bataille.
-Manche
-Bacilly : parc du château de Chantore,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Manche</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bacilly : parc du château de Chantore,
 Cherbourg-en-Cotentin :
 parc Emmanuel-Liais,
 parc du château des Ravalet,
@@ -968,8 +2617,47 @@
 			Parc du château des Ravalet.
 			Parc du domaine de Nacqueville.
 			La tête de lion dans le jardin botanique du château de Vauville.
-Orne
-Athis-de-l'Orne : jardin intérieur à ciel ouvert,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Orne</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Athis-de-l'Orne : jardin intérieur à ciel ouvert,
 Bagnoles-de-l’Orne : jardin retiré,
 Chemilli : jardin de Montperthuis,
 Le Champ-de-la-Pierre : parc du château du Champ-de-la-Pierre,
@@ -977,8 +2665,47 @@
 Saint-Christophe-le-Jajolet : jardins du château de Sassy.
  Sainte-Honorine-la-Chardonne : jardins du manoir de la Boisnerie.
 			Jardins du château de Sassy.
-Seine-Maritime
-Auzouville-sur-Ry : jardin Plume,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Seine-Maritime</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auzouville-sur-Ry : jardin Plume,
 Bois-Guilbert : jardin des Sculptures,
 Doudeville : parc du château de Galleville,
 Étretat : Les Jardins d'Étretat,
@@ -990,15 +2717,92 @@
 Tourville-sur-Arques : Miromesnil,
 			Serres des jardins suspendus du Havre.
 			Miromesnil.
-Nouvelle-Aquitaine
-Charente
-Bellevigne : jardin du Chaigne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Charente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bellevigne : jardin du Chaigne
 Bioussac : Domaine de l'Abrègement,
 Mouthiers-sur-Boëme : jardin du logis de Forge.
 			Domaine de l'Abrègement.
 			Jardin du logis de Forge.
-Charente-Maritime
-Celles : jardin de Vie,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Charente-Maritime</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celles : jardin de Vie,
 Essouvert : jardin de Pomone,
 Le Chay : jardin du Riollet,
 Saint-Denis-d'Oléron : jardins du phare de Chassiron,
@@ -1008,26 +2812,181 @@
 			Jardins du phare de Chassiron.
 			Fontaines bleues du château de Beaulon.
 			Parc du château de la Roche-Courbon.
-Corrèze
-Auriac : jardins de Sothys,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Corrèze</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auriac : jardins de Sothys,
 Espartignac : arboretum Al Gaulhia,
 Neuvic : parc-arboretum de Neuvic d'Ussel,
 Saint-Fréjoux : jardin d'Arsac,
 Ségur-le-Château : parc agricole et paysager du Chédal.
 			Arboretum Al Gaulhia.
 			Arboretum de Neuvic d'Ussel.
-Creuse
-Crozant : jardin-arboretum de La Sédelle,
-La Brionne : jardin de Val Maubrune.
-Deux-Sèvres
-Argentonnay : jardins de Cistus,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Creuse</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Crozant : jardin-arboretum de La Sédelle,
+La Brionne : jardin de Val Maubrune.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Deux-Sèvres</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentonnay : jardins de Cistus,
 Exireuil : La prairie enchantée,
 Le Pin : domaine des Roches Blanches,
 Lhoumois : Les Jardins du gué,
 Melle : arboretum du chemin de la découverte.
 			Les Jardins du gué.
-Dordogne
-Le Buisson-de-Cadouin : jardin de Planbuisson,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Dordogne</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Buisson-de-Cadouin : jardin de Planbuisson,
 Campagne : parc du domaine de Campagne,
 Carlux : jardins de Cadiot,
 Carsac-Aillac : jardins d'eau de Saint-Rome,
@@ -1052,55 +3011,442 @@
 			Roseraie du château de Losse.
 			Jardins de Sardy.
 			Jardins de buis de Marqueyssac.
-Gironde
-Blanquefort : parc de Majolan,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blanquefort : parc de Majolan,
 Léognan : jardin millésimé au château Larrivet Haut-Brion,
 Lugon-et-l'Île-du-Carnay : jardin du Fond de l'or,
 Margueron : jardin du château Pierrail,
 Néac : parc du château de Siaurac,
 Podensac : parc de Chavat.
 			Parc de Majolan.
-Haute-Vienne
-Saint-Yrieix-la-Perche : jardin des Vitailles.
-Landes
-Bordères-et-Lamensans : parc du château de Marrast,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Haute-Vienne</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Saint-Yrieix-la-Perche : jardin des Vitailles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Landes</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Bordères-et-Lamensans : parc du château de Marrast,
 Dax : parc du Sarrat,
-Saubrigues : jardin des Barthes.
-Lot-et-Garonne
-Auriac-sur-Dropt : jardin de Mireille,
+Saubrigues : jardin des Barthes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Lot-et-Garonne</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auriac-sur-Dropt : jardin de Mireille,
 Baleyssagues : jardin de Boissonna,
 Marmande :
 jardin du cloître Notre-Dame,
 jardin de Beauchamp,
 Le Temple-sur-Lot : jardin de nénuphars des pépinières Latour-Marliac.
 			Jardin du cloître Notre-Dame.
-Pyrénées-Atlantiques
-Cambo-les-Bains : jardins de la villa Arnaga,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pyrénées-Atlantiques</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambo-les-Bains : jardins de la villa Arnaga,
 Pau : domaine du château de Pau,
 Viven : jardins du château de Viven.
 			Jardins de la villa Arnaga.
-Vienne
-Aslonnes : jardins du prieuré de Laverré,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Vienne</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aslonnes : jardins du prieuré de Laverré,
 Bonnes : jardins du château de Touffou,
 Chalandray : jardin du château de la Motte,
 Linazay : jardin de Fortran.
 			Jardins du château de Touffou.
- Occitanie 
-Ariège
-Lapenne : parc aux Bambous,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Ariège</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lapenne : parc aux Bambous,
 Rimont : jardin de l'abbaye de Combelongue.
 			Parc aux Bambous.
 			Jardin de l'abbaye de Combelongue.
-Aude
-Narbonne : jardin de l'abbaye Sainte-Marie de Fontfroide,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Aude</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Narbonne : jardin de l'abbaye Sainte-Marie de Fontfroide,
 Pennautier : Parc et jardin du château de Pennautier.
 			Cloître de l'abbaye de Fontfroide.
-Aveyron
-Bournazel : jardins du château de Bournazel,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Aveyron</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bournazel : jardins du château de Bournazel,
 Salles-Courbatiès : jardin de la Mothe.
 			Jardin de la Mothe.
-Gard
-Concoules : jardin du Tomple,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Gard</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concoules : jardin du Tomple,
 Générargues : bambouseraie en Cévennes,
 Monoblet : jardin de Mazet à Paillès,
 Nîmes : jardins de la Fontaine,
@@ -1110,12 +3456,89 @@
 Villeneuve-lès-Avignon : jardin de l'ancienne abbaye Saint-André.
 			Bambouseraie en Cévennes.
 			Jardin de l'ancienne abbaye Saint-André.
-Gers
-Auch : square Jérôme Cuzin
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Gers</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Auch : square Jérôme Cuzin
 Bétous : palmeraie du Sarthou,
-La Romieu : jardin et arboretum de Coursiana.
-Haute-Garonne
-Caraman : jardin d’En Galinou,
+La Romieu : jardin et arboretum de Coursiana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Haute-Garonne</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caraman : jardin d’En Galinou,
 Merville : parc du château de Merville,
 Toulouse :
 jardin japonais de Compans-Cafarelli,
@@ -1124,13 +3547,91 @@
 			Jardin japonais de Compans-Cafarelli.
 			Jardin du Grand Rond.
 			Jardin Royal de Toulouse.
-Hautes-Pyrénées
-Maubourguet : jardin de la Seigneurie,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Hautes-Pyrénées</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maubourguet : jardin de la Seigneurie,
 Tarbes : jardin Massey,
 Thermes-Magnoac : jardin de la Poterie Hillen.
 			Jardin Massey.
-Hérault
-Balaruc-les-Bains : jardin antique méditerranéen,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hérault</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balaruc-les-Bains : jardin antique méditerranéen,
 Béziers : jardin des Poètes,
 Béziers : jardin de la Villa Antonine,
 Margon : parc et jardin du château de Margon,
@@ -1142,11 +3643,88 @@
 			Jardin du château de Margon.
 			Jardin public de la Motte.
 			Jardin du château de Flaugergues.
-Lot
-Cahors : jardins secrets,
-Meyronne : jardin de l'ancien couvent de Meyronne.
-Tarn
-Albi : jardin du palais de la Berbie,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Lot</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Cahors : jardins secrets,
+Meyronne : jardin de l'ancien couvent de Meyronne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Tarn</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albi : jardin du palais de la Berbie,
 Albi : parc Rochegude,
 Castres : jardin de l'Évêché,
 Cordes-sur-Ciel : jardin de Paradis,
@@ -1154,19 +3732,134 @@
 			Jardin du palais de la Berbie.
 			Jardin de l'Évêché de Castres.
 			Jardin des Martels.
-Tarn-et-Garonne
-Escatalens : jardin de Laroque
-Verfeil : jardins de Quercy.
-Pays de la Loire
-Loire-Atlantique
-Herbignac :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Occitanie </t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Tarn-et-Garonne</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Escatalens : jardin de Laroque
+Verfeil : jardins de Quercy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Loire-Atlantique</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herbignac :
 jardins de Kermoureau,
 jardins du Marais,
 Nantes : jardin des Plantes.
 			Jardins de Kermoureau.
 			Grand bassin du jardin des plantes de Nantes.
-Maine-et-Loire
-Champtocé-sur-Loire : jardins du château du Pin,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Maine-et-Loire</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Champtocé-sur-Loire : jardins du château du Pin,
 Chemillé-en-Anjou : Camifolia,
 Fougeré : parc et jardins de Gastines,
 Maulévrier :
@@ -1175,12 +3868,89 @@
 			Jardins du château du Pin.
 			Jardins de Gastines.
 			Parc oriental de Maulévrier.
-Mayenne
-Chailland : parc et jardin de Clivoy,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Mayenne</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Chailland : parc et jardin de Clivoy,
 La Pellerine : jardins de la Pellerine,
-Préaux : jardins du manoir de Favry.
-Sarthe
-Ballon : jardins du donjon de Ballon,
+Préaux : jardins du manoir de Favry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Sarthe</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ballon : jardins du donjon de Ballon,
 Beaumont-sur-Dême : hortus conclusus du prieuré de Vauboin,
 Crannes-en-Champagne : jardins du Mirail,
 Louplande : jardins du château de Villaines,
@@ -1190,25 +3960,141 @@
 			Jardins du château de Villaines.
 			Jardins du château du Lude.
 			Jardins du château de Poncé.
-Vendée
-Bazoges-en-Pareds : jardin médiéval,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Vendée</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bazoges-en-Pareds : jardin médiéval,
 Chantonnay : Château de L'Auneau,
 Sainte-Pexine : jardins de Chaligny,
 Thiré : jardins du Bâtiment.
 			Jardin médiéval de Bazoges en Pareds.
 			Jardins de Chaligny.
 			Jardins du Bâtiment.
-Provence-Alpes-Côte d'Azur
-Alpes-de-Haute-Provence
-Mane :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Alpes-de-Haute-Provence</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mane :
 jardins du prieuré de Salagon,
 jardins du château de Sauvan,
 Simiane-la-Rotonde ; jardin de l'ancienne abbaye de Valsaintes,
 			Jardins du prieuré de Salagon.
 			Jardins du château de Sauvan.
 			Jardin de l'ancienne abbaye de Valsaintes.
-Alpes-Maritimes
-Antibes : jardin botanique de la villa Thuret,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antibes : jardin botanique de la villa Thuret,
 Èze : jardin exotique d'Èze,
 Grasse : jardin de la villa Fort France,
 La Gaude : jardin de l'Argelière,
@@ -1229,8 +4115,47 @@
 			Jardin botanique de Nice.
 			Parc Phœnix.
 			Jardins Ephrussi de Rothschild.
-Bouches-du-Rhône
-Aix-en-Provence : jardin de la bastide de Romégas,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Bouches-du-Rhône</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aix-en-Provence : jardin de la bastide de Romégas,
 Bouc-Bel-Air : jardin d'Albertas,
 Éguilles : jardin d'Éguilles de Max Sauze,
 Eyragues : bambous en Provence,
@@ -1240,13 +4165,91 @@
 jardin de la Magalone.
 			Jardin d'Albertas.
 			Mosaïculture dans le parc Borély.
-Hautes-Alpes
-Gap : domaine de Charance,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Hautes-Alpes</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gap : domaine de Charance,
 Villar-d'Arêne : jardin alpin du Lautaret.
 			Jardin en terrasse du domaine de Charance.
 			Jardin alpin du Lautaret.
-Var
-Bormes-les-Mimosas : parc Gonzalez,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bormes-les-Mimosas : parc Gonzalez,
 Flassans-sur-Issole : jardin de la commanderie de Peyrassol,
 Gassin : jardin Germaine L'Hardy-Denonain,
 Hyères :
@@ -1267,8 +4270,47 @@
 			Jardin zoologique tropical.
 			Jardin de Nouvelle-Zélande au domaine du Rayol.
 			Jardin de Baudouvin.
-Vaucluse
-Bonnieux : jardin de la Louve,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Vaucluse</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonnieux : jardin de la Louve,
 Cucuron : pavillon de Galon,
 Lauris : jardin blanc et conservatoire des plantes tinctoriales,
 Pertuis : jardin du château de Val Joanis,
@@ -1277,15 +4319,85 @@
 Sorgues : domaine de Brantes.
 			Jardin à la française au pavillon de Galon.
 			Harmas de Fabre.
-Guadeloupe
-Basse-Terre : jardin de Beauvallon,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Guadeloupe</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basse-Terre : jardin de Beauvallon,
 Deshaies : jardin botanique de Deshaies,
 Petit-Bourg : domaine de Valombreuse,
 Petit-Canal : parc paysager de Petit-Canal,
 Sainte-Rose : jardin de l'écomusée de la Guadeloupe.
 			L'étang aux nénuphars du jardin botanique de Deshaies.
-Martinique
-Fort-de-France : jardin de Balata,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Martinique</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fort-de-France : jardin de Balata,
 Le Carbet : jardin animalier de l'Anse Latouche,
 Le François : jardin de l'Habitation Acajou,
 Gros-Morne : jardin de l'Habitation Saint-Étienne,
@@ -1294,9 +4406,44 @@
 Le Prêcheur : jardin de l'Habitation Céron.
 			Le parc botanique de l'Habitation Acajou.
 			Jardin de l'Habitation Saint-Étienne.
-La Réunion
-Saint-Denis : jardin de la maison d'Édith.
-Saint-Leu : Mascarin, jardin botanique de La Réunion[4].</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_portant_le_label_Jardin_remarquable</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Liste par régions</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>La Réunion</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Saint-Denis : jardin de la maison d'Édith.
+Saint-Leu : Mascarin, jardin botanique de La Réunion.</t>
         </is>
       </c>
     </row>
